--- a/notebooks/scripts/filtered_df_negative_edges.xlsx
+++ b/notebooks/scripts/filtered_df_negative_edges.xlsx
@@ -562,7 +562,7 @@
         <v>6250</v>
       </c>
       <c r="Q2" t="n">
-        <v>6000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="3">
@@ -607,7 +607,7 @@
         <v>6250</v>
       </c>
       <c r="Q3" t="n">
-        <v>6000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="4">
@@ -652,7 +652,7 @@
         <v>6250</v>
       </c>
       <c r="Q4" t="n">
-        <v>6000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="5">
@@ -697,7 +697,7 @@
         <v>6250</v>
       </c>
       <c r="Q5" t="n">
-        <v>6000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="6">
@@ -742,7 +742,7 @@
         <v>6250</v>
       </c>
       <c r="Q6" t="n">
-        <v>6000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="7">
@@ -787,7 +787,7 @@
         <v>6250</v>
       </c>
       <c r="Q7" t="n">
-        <v>6000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="8">
@@ -832,7 +832,7 @@
         <v>6250</v>
       </c>
       <c r="Q8" t="n">
-        <v>6000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="9">
@@ -877,7 +877,7 @@
         <v>6250</v>
       </c>
       <c r="Q9" t="n">
-        <v>6000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="10">
@@ -922,7 +922,7 @@
         <v>6250</v>
       </c>
       <c r="Q10" t="n">
-        <v>6000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="11">
@@ -967,7 +967,7 @@
         <v>6250</v>
       </c>
       <c r="Q11" t="n">
-        <v>6000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="12">
@@ -1012,7 +1012,7 @@
         <v>6250</v>
       </c>
       <c r="Q12" t="n">
-        <v>6000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="13">
@@ -1057,7 +1057,7 @@
         <v>6250</v>
       </c>
       <c r="Q13" t="n">
-        <v>6000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="14">
@@ -1102,7 +1102,7 @@
         <v>6250</v>
       </c>
       <c r="Q14" t="n">
-        <v>6000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="15">
@@ -1147,7 +1147,7 @@
         <v>6250</v>
       </c>
       <c r="Q15" t="n">
-        <v>6000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="16">
@@ -1192,7 +1192,7 @@
         <v>6250</v>
       </c>
       <c r="Q16" t="n">
-        <v>6000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="17">
@@ -1237,7 +1237,7 @@
         <v>6250</v>
       </c>
       <c r="Q17" t="n">
-        <v>6000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="18">
@@ -1282,7 +1282,7 @@
         <v>6250</v>
       </c>
       <c r="Q18" t="n">
-        <v>6000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="19">
@@ -1461,7 +1461,7 @@
         <v>6250</v>
       </c>
       <c r="Q21" t="n">
-        <v>6000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="22">
@@ -1506,7 +1506,7 @@
         <v>6250</v>
       </c>
       <c r="Q22" t="n">
-        <v>6000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="23">
@@ -1551,7 +1551,7 @@
         <v>6250</v>
       </c>
       <c r="Q23" t="n">
-        <v>6000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="24">
@@ -1596,7 +1596,7 @@
         <v>6250</v>
       </c>
       <c r="Q24" t="n">
-        <v>6000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="25">
@@ -1641,7 +1641,7 @@
         <v>6250</v>
       </c>
       <c r="Q25" t="n">
-        <v>6000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="26">
@@ -1686,7 +1686,7 @@
         <v>6250</v>
       </c>
       <c r="Q26" t="n">
-        <v>6000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="27">
@@ -1731,7 +1731,7 @@
         <v>6250</v>
       </c>
       <c r="Q27" t="n">
-        <v>6000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="28">
@@ -1776,7 +1776,7 @@
         <v>6250</v>
       </c>
       <c r="Q28" t="n">
-        <v>6000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="29">
@@ -1821,7 +1821,7 @@
         <v>6250</v>
       </c>
       <c r="Q29" t="n">
-        <v>6000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="30">
@@ -1866,7 +1866,7 @@
         <v>6250</v>
       </c>
       <c r="Q30" t="n">
-        <v>6000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="31">
@@ -1911,7 +1911,7 @@
         <v>6250</v>
       </c>
       <c r="Q31" t="n">
-        <v>6000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="32">
@@ -1956,7 +1956,7 @@
         <v>6250</v>
       </c>
       <c r="Q32" t="n">
-        <v>6000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="33">
@@ -2001,7 +2001,7 @@
         <v>6250</v>
       </c>
       <c r="Q33" t="n">
-        <v>6000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="34">
@@ -2046,7 +2046,7 @@
         <v>6250</v>
       </c>
       <c r="Q34" t="n">
-        <v>6000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="35">
@@ -2091,7 +2091,7 @@
         <v>6250</v>
       </c>
       <c r="Q35" t="n">
-        <v>6000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="36">
@@ -2136,7 +2136,7 @@
         <v>6250</v>
       </c>
       <c r="Q36" t="n">
-        <v>6000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="37">
@@ -2181,7 +2181,7 @@
         <v>6250</v>
       </c>
       <c r="Q37" t="n">
-        <v>6000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="38">
@@ -2226,7 +2226,7 @@
         <v>6250</v>
       </c>
       <c r="Q38" t="n">
-        <v>6000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="39">
@@ -2271,7 +2271,7 @@
         <v>6250</v>
       </c>
       <c r="Q39" t="n">
-        <v>6000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="40">
@@ -2316,7 +2316,7 @@
         <v>6250</v>
       </c>
       <c r="Q40" t="n">
-        <v>6000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="41">
@@ -2361,7 +2361,7 @@
         <v>6250</v>
       </c>
       <c r="Q41" t="n">
-        <v>6000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="42">
@@ -2406,7 +2406,7 @@
         <v>6250</v>
       </c>
       <c r="Q42" t="n">
-        <v>6000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="43">
@@ -2451,7 +2451,7 @@
         <v>6250</v>
       </c>
       <c r="Q43" t="n">
-        <v>6000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="44">
@@ -2496,7 +2496,7 @@
         <v>6250</v>
       </c>
       <c r="Q44" t="n">
-        <v>6000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="45">
@@ -2541,7 +2541,7 @@
         <v>6250</v>
       </c>
       <c r="Q45" t="n">
-        <v>6000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="46">
@@ -2586,7 +2586,7 @@
         <v>6250</v>
       </c>
       <c r="Q46" t="n">
-        <v>6000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="47">
@@ -2631,7 +2631,7 @@
         <v>6250</v>
       </c>
       <c r="Q47" t="n">
-        <v>6000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="48">
@@ -2676,7 +2676,7 @@
         <v>6250</v>
       </c>
       <c r="Q48" t="n">
-        <v>6000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="49">
@@ -2721,7 +2721,7 @@
         <v>6250</v>
       </c>
       <c r="Q49" t="n">
-        <v>6000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="50">
@@ -2766,7 +2766,7 @@
         <v>6250</v>
       </c>
       <c r="Q50" t="n">
-        <v>6000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="51">
@@ -2811,7 +2811,7 @@
         <v>6250</v>
       </c>
       <c r="Q51" t="n">
-        <v>6000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="52">
@@ -2856,7 +2856,7 @@
         <v>6250</v>
       </c>
       <c r="Q52" t="n">
-        <v>6000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="53">
@@ -2901,7 +2901,7 @@
         <v>6250</v>
       </c>
       <c r="Q53" t="n">
-        <v>6000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="54">
@@ -2946,7 +2946,7 @@
         <v>6250</v>
       </c>
       <c r="Q54" t="n">
-        <v>6000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="55">
@@ -2991,7 +2991,7 @@
         <v>6250</v>
       </c>
       <c r="Q55" t="n">
-        <v>6000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="56">
@@ -3036,7 +3036,7 @@
         <v>6250</v>
       </c>
       <c r="Q56" t="n">
-        <v>6000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="57">
@@ -3081,7 +3081,7 @@
         <v>6250</v>
       </c>
       <c r="Q57" t="n">
-        <v>6000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="58">
@@ -3126,7 +3126,7 @@
         <v>6250</v>
       </c>
       <c r="Q58" t="n">
-        <v>6000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="59">
@@ -3171,7 +3171,7 @@
         <v>6250</v>
       </c>
       <c r="Q59" t="n">
-        <v>6000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="60">
@@ -3216,7 +3216,7 @@
         <v>6250</v>
       </c>
       <c r="Q60" t="n">
-        <v>6000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="61">
@@ -3261,7 +3261,7 @@
         <v>6250</v>
       </c>
       <c r="Q61" t="n">
-        <v>6000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="62">
@@ -3306,7 +3306,7 @@
         <v>6250</v>
       </c>
       <c r="Q62" t="n">
-        <v>6000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="63">
@@ -3351,7 +3351,7 @@
         <v>6250</v>
       </c>
       <c r="Q63" t="n">
-        <v>6000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="64">
@@ -3396,7 +3396,7 @@
         <v>6250</v>
       </c>
       <c r="Q64" t="n">
-        <v>6000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="65">
@@ -3441,7 +3441,7 @@
         <v>6250</v>
       </c>
       <c r="Q65" t="n">
-        <v>6000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="66">
@@ -3486,7 +3486,7 @@
         <v>6250</v>
       </c>
       <c r="Q66" t="n">
-        <v>6000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="67">
@@ -3531,7 +3531,7 @@
         <v>6250</v>
       </c>
       <c r="Q67" t="n">
-        <v>6000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="68">
@@ -3576,7 +3576,7 @@
         <v>6250</v>
       </c>
       <c r="Q68" t="n">
-        <v>6000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="69">
@@ -3621,7 +3621,7 @@
         <v>6250</v>
       </c>
       <c r="Q69" t="n">
-        <v>6000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="70">
@@ -3666,7 +3666,7 @@
         <v>6250</v>
       </c>
       <c r="Q70" t="n">
-        <v>6000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="71">
@@ -3711,7 +3711,7 @@
         <v>6250</v>
       </c>
       <c r="Q71" t="n">
-        <v>6000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="72">
@@ -3756,7 +3756,7 @@
         <v>6250</v>
       </c>
       <c r="Q72" t="n">
-        <v>6000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="73">
@@ -3801,7 +3801,7 @@
         <v>6250</v>
       </c>
       <c r="Q73" t="n">
-        <v>6000</v>
+        <v>2000</v>
       </c>
     </row>
   </sheetData>
